--- a/Input data/avail.xlsx
+++ b/Input data/avail.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,16 +542,16 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="D6" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="7">
@@ -559,16 +559,16 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="C7" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="D7" t="n">
-        <v>0.18</v>
+        <v>0.04</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="8">
@@ -576,10 +576,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="C8" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -593,16 +593,16 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="C9" t="n">
         <v>0.08</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="10">
@@ -610,16 +610,16 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08</v>
+        <v>0.18</v>
       </c>
       <c r="D10" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="11">
@@ -627,16 +627,16 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>0.17</v>
+        <v>0.26</v>
       </c>
       <c r="C11" t="n">
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
       <c r="D11" t="n">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="12">
@@ -647,13 +647,13 @@
         <v>0.24</v>
       </c>
       <c r="C12" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="D12" t="n">
-        <v>0.32</v>
+        <v>0.01</v>
       </c>
       <c r="E12" t="n">
-        <v>0.44</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="13">
@@ -661,49 +661,15 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>0.29</v>
+        <v>0.18</v>
       </c>
       <c r="C13" t="n">
-        <v>0.32</v>
+        <v>0.13</v>
       </c>
       <c r="D13" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
         <v>0</v>
       </c>
     </row>
